--- a/Tables/Intermediate.xlsx
+++ b/Tables/Intermediate.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>2002-08-01</t>
+          <t>2008-02-21</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="AD6" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE6" s="1" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr"/>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2011-07-26</t>
+          <t>2007-12-19</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr">
@@ -1753,11 +1753,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF9" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF9" s="1" t="inlineStr"/>
       <c r="AG9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -1827,7 +1823,7 @@
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr"/>
@@ -1885,7 +1881,7 @@
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr">
@@ -1963,7 +1959,7 @@
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr"/>
@@ -1985,12 +1981,12 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t>2010-03-02</t>
+          <t>2009-07-13</t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="AD11" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE11" s="1" t="inlineStr">
@@ -2177,7 +2173,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr">
@@ -2289,19 +2285,19 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W13" s="1" t="inlineStr">
+        <is>
+          <t>2009-07-07</t>
+        </is>
+      </c>
+      <c r="X13" s="1" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="W13" s="1" t="inlineStr">
-        <is>
-          <t>2008-09-03</t>
-        </is>
-      </c>
-      <c r="X13" s="1" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
           <t>2019-09-10</t>
@@ -2329,7 +2325,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr">
@@ -2441,7 +2437,7 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
@@ -2481,7 +2477,7 @@
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr">
@@ -2593,12 +2589,12 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>2008-01-23</t>
+          <t>2009-07-08</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
@@ -2633,7 +2629,7 @@
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr">
@@ -2745,12 +2741,12 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2008-01-09</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
@@ -2785,7 +2781,7 @@
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr">
@@ -2897,7 +2893,7 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
@@ -2937,7 +2933,7 @@
       </c>
       <c r="AD17" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE17" s="1" t="inlineStr">
@@ -3049,12 +3045,12 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>3.9425</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2007-01-11</t>
+          <t>2008-01-16</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
@@ -3089,7 +3085,7 @@
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr">
@@ -3381,7 +3377,7 @@
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE20" s="1" t="inlineStr">
@@ -3481,22 +3477,22 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2004-02-06</t>
+          <t>2009-07-08</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2015-09-21</t>
+          <t>2016-09-07</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3521,7 +3517,7 @@
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE21" s="1" t="inlineStr">
@@ -3637,12 +3633,12 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2010-04-29</t>
+          <t>2010-08-23</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
@@ -3677,7 +3673,7 @@
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr">
@@ -3829,7 +3825,7 @@
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AE23" s="1" t="inlineStr">
@@ -3941,12 +3937,12 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2010-03-01</t>
+          <t>2009-09-04</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
@@ -3981,7 +3977,7 @@
       </c>
       <c r="AD24" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE24" s="1" t="inlineStr">
@@ -4000,7 +3996,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-40 S1</t>
+          <t>R-19 S2</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -4010,22 +4006,22 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>35.83939</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>-106.26278</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>6719.24</t>
+          <t>7066.3</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tp</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr"/>
@@ -4033,24 +4029,24 @@
       <c r="I25" s="1" t="inlineStr"/>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>751.59</t>
+          <t>893.3</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>785.060</t>
+          <t>909.600</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>original x, y, z = 1629920.1,1760250, 7066.9, Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr"/>
       <c r="N25" s="1" t="inlineStr"/>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
@@ -4077,22 +4073,22 @@
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2009-03-10</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2015-04-13</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
@@ -4117,7 +4113,7 @@
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE25" s="1" t="inlineStr">
@@ -4125,7 +4121,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF25" s="1" t="inlineStr"/>
+      <c r="AF25" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG25" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4136,7 +4136,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-40 Si</t>
+          <t>R-40 S1</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>6719.240</t>
+          <t>6719.24</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
@@ -4169,25 +4169,21 @@
       <c r="I26" s="1" t="inlineStr"/>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>649.67</t>
+          <t>751.59</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>669.020</t>
+          <t>785.060</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr"/>
-      <c r="N26" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N26" s="1" t="inlineStr"/>
       <c r="O26" s="1" t="inlineStr">
         <is>
           <t>TA-54</t>
@@ -4205,7 +4201,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T26" s="1" t="inlineStr"/>
+      <c r="T26" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -4213,60 +4213,192 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W26" s="1" t="inlineStr">
+        <is>
+          <t>2009-09-04</t>
+        </is>
+      </c>
+      <c r="X26" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y26" s="1" t="inlineStr">
+        <is>
+          <t>2019-10-30</t>
+        </is>
+      </c>
+      <c r="Z26" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA26" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB26" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC26" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD26" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AE26" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AF26" s="1" t="inlineStr"/>
+      <c r="AG26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>R-40 Si</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>35.83939</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>-106.26278</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>6719.240</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Tb4</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr"/>
+      <c r="H27" s="1" t="inlineStr"/>
+      <c r="I27" s="1" t="inlineStr"/>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>649.67</t>
+        </is>
+      </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>669.020</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="inlineStr"/>
+      <c r="N27" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="O27" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
+      <c r="P27" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q27" s="1" t="inlineStr"/>
+      <c r="R27" s="1" t="inlineStr"/>
+      <c r="S27" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T27" s="1" t="inlineStr"/>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V27" s="1" t="inlineStr">
+        <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="W26" s="1" t="inlineStr">
+      <c r="W27" s="1" t="inlineStr">
         <is>
           <t>2018-10-19</t>
         </is>
       </c>
-      <c r="X26" s="1" t="inlineStr">
+      <c r="X27" s="1" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="Y26" s="1" t="inlineStr">
+      <c r="Y27" s="1" t="inlineStr">
         <is>
           <t>2018-10-19</t>
         </is>
       </c>
-      <c r="Z26" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA26" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB26" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC26" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD26" s="1" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AE26" s="1" t="inlineStr">
+      <c r="Z27" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA27" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB27" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC27" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD27" s="1" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AE27" s="1" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="AF26" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
-      <c r="AG26" s="1" t="inlineStr">
+      <c r="AF27" s="1" t="inlineStr"/>
+      <c r="AG27" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
 </t>
@@ -4284,7 +4416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4384,12 +4516,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>8/1/02</t>
+          <t>2/21/08</t>
         </is>
       </c>
     </row>
@@ -4670,12 +4802,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>7/26/11</t>
+          <t>12/19/07</t>
         </is>
       </c>
     </row>
@@ -4738,19 +4870,19 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>3/2/10</t>
+          <t>7/13/09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Los Alamos and Pajarito Canyons</t>
         </is>
       </c>
       <c r="H15" s="5" t="n"/>
@@ -4830,12 +4962,12 @@
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>9/3/08</t>
+          <t>7/7/09</t>
         </is>
       </c>
     </row>
@@ -4872,7 +5004,7 @@
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
@@ -4914,12 +5046,12 @@
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>1/23/08</t>
+          <t>7/8/09</t>
         </is>
       </c>
     </row>
@@ -4956,12 +5088,12 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>8/27/08</t>
+          <t>1/9/08</t>
         </is>
       </c>
     </row>
@@ -4998,7 +5130,7 @@
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
@@ -5040,12 +5172,12 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>3.9425</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>1/11/07</t>
+          <t>1/16/08</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5282,12 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>2/6/04</t>
+          <t>7/8/09</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5324,12 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>4/29/10</t>
+          <t>8/23/10</t>
         </is>
       </c>
     </row>
@@ -5276,53 +5408,53 @@
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>3/1/10</t>
+          <t>9/4/09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R-40 S1</t>
+          <t>R-19 S2</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>35.83939</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>-106.26278</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr"/>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>751.59 - 785.06</t>
+          <t>893.3 - 909.6</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>12/4/09</t>
+          <t>3/10/09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R-40 Si</t>
+          <t>R-40 S1</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -5339,15 +5471,49 @@
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
+          <t>751.59 - 785.06</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>9/4/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>R-40 Si</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>35.83939</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>-106.26278</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr"/>
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
           <t>649.67 - 669.02</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H31" s="1" t="inlineStr">
         <is>
           <t>10/19/18</t>
         </is>

--- a/Tables/Intermediate.xlsx
+++ b/Tables/Intermediate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Intermediate for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Intermediate Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intermediate for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intermediate Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>2008-02-21</t>
+          <t>2002-08-01</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2007-12-19</t>
+          <t>2010-06-17</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t>2009-07-13</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
@@ -2133,12 +2133,12 @@
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>2010-01-07</t>
+          <t>2008-01-24</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>2009-07-07</t>
+          <t>2012-09-04</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>2009-07-08</t>
+          <t>2008-01-23</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2008-01-09</t>
+          <t>2011-03-10</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.9425</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2008-01-16</t>
+          <t>2007-01-11</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2009-07-08</t>
+          <t>2004-02-06</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2010-08-23</t>
+          <t>2010-04-29</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
@@ -3937,12 +3937,12 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2009-09-04</t>
+          <t>2009-12-14</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t>2009-09-04</t>
+          <t>2009-12-04</t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>5.6789</t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2010-06-17</t>
         </is>
       </c>
       <c r="X27" s="1" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>2/21/08</t>
+          <t>8/1/02</t>
         </is>
       </c>
     </row>
@@ -4802,12 +4802,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>12/19/07</t>
+          <t>6/17/10</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>7/13/09</t>
+          <t>10/28/11</t>
         </is>
       </c>
     </row>
@@ -4920,12 +4920,12 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>1/7/10</t>
+          <t>1/24/08</t>
         </is>
       </c>
     </row>
@@ -4962,12 +4962,12 @@
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>7/7/09</t>
+          <t>9/4/12</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>7/8/09</t>
+          <t>1/23/08</t>
         </is>
       </c>
     </row>
@@ -5088,12 +5088,12 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>1/9/08</t>
+          <t>3/10/11</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.9425</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>1/16/08</t>
+          <t>1/11/07</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>7/8/09</t>
+          <t>2/6/04</t>
         </is>
       </c>
     </row>
@@ -5324,12 +5324,12 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>8/23/10</t>
+          <t>4/29/10</t>
         </is>
       </c>
     </row>
@@ -5408,12 +5408,12 @@
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>9/4/09</t>
+          <t>12/14/09</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>9/4/09</t>
+          <t>12/4/09</t>
         </is>
       </c>
     </row>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5.6789</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>10/19/18</t>
+          <t>6/17/10</t>
         </is>
       </c>
     </row>

--- a/Tables/Intermediate.xlsx
+++ b/Tables/Intermediate.xlsx
@@ -655,12 +655,12 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.801</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>2019-07-25</t>
+          <t>2013-07-22</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>2019-10-22</t>
+          <t>2015-10-26</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2019-10-22</t>
+          <t>2010-10-18</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2011-10-26</t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
@@ -2295,12 +2295,12 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.161</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2013-08-15</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2016-08-24</t>
         </is>
       </c>
       <c r="Z14" s="1" t="inlineStr">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>2019-09-11</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="Z16" s="1" t="inlineStr">
@@ -2903,12 +2903,12 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>2019-06-12</t>
+          <t>2013-06-03</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
@@ -3055,12 +3055,12 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2019-06-24</t>
+          <t>2016-06-02</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>2019-09-09</t>
+          <t>2016-08-23</t>
         </is>
       </c>
       <c r="Z20" s="1" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2016-09-07</t>
+          <t>2015-09-21</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3643,12 +3643,12 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2019-06-21</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>0.638</t>
+          <t>0.204</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2019-04-16</t>
+          <t>2017-11-01</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>2009-12-14</t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2015-04-13</t>
+          <t>2014-04-09</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-04-12</t>
         </is>
       </c>
       <c r="Z26" s="1" t="inlineStr">
@@ -4359,12 +4359,12 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2013-12-11</t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">

--- a/Tables/Intermediate.xlsx
+++ b/Tables/Intermediate.xlsx
@@ -2285,12 +2285,12 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>2012-09-04</t>
+          <t>1995-05-18</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr">
@@ -4424,12 +4424,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>
@@ -4962,12 +4962,12 @@
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>9/4/12</t>
+          <t>5/18/95</t>
         </is>
       </c>
     </row>

--- a/Tables/Intermediate.xlsx
+++ b/Tables/Intermediate.xlsx
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>R-23i S1</t>
+          <t>R-37 S1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1498,22 +1498,22 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.84437</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.25873</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>6527.88</t>
+          <t>6870.59</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr"/>
@@ -1521,17 +1521,17 @@
       <c r="I8" s="1" t="inlineStr"/>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>400.3</t>
+          <t>929.3</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>420.000</t>
+          <t>950.000</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>4.5 inch casing. This corresponds to LANL's R-23i S2, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Brass monument location, Brass monument location</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr"/>
@@ -1565,22 +1565,22 @@
       </c>
       <c r="V8" s="1" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>2009-12-03</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>2015-10-26</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr">
@@ -1613,11 +1613,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF8" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF8" s="1" t="inlineStr"/>
       <c r="AG8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -1628,7 +1624,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>R-23i S2</t>
+          <t>LADP-3</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1638,55 +1634,71 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.87418</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.27507</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>6527.88</t>
+          <t>6754.19</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr"/>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="inlineStr"/>
+          <t>Qbog</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>1993-12-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>326.00</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>470.2</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>480.100</t>
+          <t>325.000</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>4.5 inch casing. This corresponds to LANL's R-23i S3, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Brass Cap, Brass Cap, 21-1682 (second label). Drill hole OU-1106(TA-21): geo/hydro investigative</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr"/>
       <c r="N9" s="1" t="inlineStr"/>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr"/>
+          <t>Los Alamos</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R9" s="1" t="inlineStr"/>
       <c r="S9" s="1" t="inlineStr">
         <is>
@@ -1705,47 +1717,47 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2010-06-17</t>
+          <t>2008-01-24</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2010-10-18</t>
+          <t>2017-09-27</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA9" s="1" t="inlineStr">
         <is>
-          <t>2006-10-03</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB9" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC9" s="1" t="inlineStr">
         <is>
-          <t>2006-10-03</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr">
@@ -1753,7 +1765,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF9" s="1" t="inlineStr"/>
+      <c r="AF9" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -1764,7 +1780,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>R-23i S3</t>
+          <t>LAOI(a)-1.1</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1774,66 +1790,78 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.87543</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.28709</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>6527.880</t>
+          <t>6835.2</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr"/>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="inlineStr"/>
+          <t>Qbog</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>1994-11-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>310.20</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>295.2</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>547.000</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
-        </is>
-      </c>
+          <t>305.000</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr"/>
       <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N10" s="1" t="inlineStr"/>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q10" s="1" t="inlineStr"/>
+          <t>Los Alamos</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R10" s="1" t="inlineStr"/>
       <c r="S10" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T10" s="1" t="inlineStr"/>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -1841,47 +1869,47 @@
       </c>
       <c r="V10" s="1" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>2006-10-11</t>
+          <t>1995-05-18</t>
         </is>
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.161</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>2011-10-26</t>
+          <t>2013-08-15</t>
         </is>
       </c>
       <c r="Z10" s="1" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA10" s="1" t="inlineStr">
         <is>
-          <t>2006-10-11</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB10" s="1" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC10" s="1" t="inlineStr">
         <is>
-          <t>2006-10-11</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD10" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE10" s="1" t="inlineStr">
@@ -1889,11 +1917,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF10" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF10" s="1" t="inlineStr"/>
       <c r="AG10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -1904,7 +1928,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-37 S1</t>
+          <t>LAOI-3.2</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1914,55 +1938,71 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>35.84437</t>
+          <t>35.87308</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>-106.25873</t>
+          <t>-106.25937</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>6870.59</t>
+          <t>6622.6</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="inlineStr"/>
+          <t>Qbog</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>2005-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>165.00</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>929.3</t>
+          <t>153.3</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>950.000</t>
+          <t>162.800</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>Brass monument location, Brass monument location</t>
+          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr"/>
       <c r="N11" s="1" t="inlineStr"/>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr"/>
+          <t>Los Alamos</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R11" s="1" t="inlineStr"/>
       <c r="S11" s="1" t="inlineStr">
         <is>
@@ -1981,47 +2021,47 @@
       </c>
       <c r="V11" s="1" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W11" s="1" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2008-01-15</t>
         </is>
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2016-08-24</t>
         </is>
       </c>
       <c r="Z11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AA11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AC11" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="AD11" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE11" s="1" t="inlineStr">
@@ -2040,7 +2080,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>LADP-3</t>
+          <t>LAOI-3.2a</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -2050,52 +2090,52 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>35.87418</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>-106.27507</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>6754.19</t>
+          <t>6624.43</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>Qbog</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>1993-12-17 00:00:00</t>
+          <t>2006-01-20 00:00:00</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>326.00</t>
+          <t>194.10</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>181.4</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>325.000</t>
+          <t>191.000</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap, Brass Cap, 21-1682 (second label). Drill hole OU-1106(TA-21): geo/hydro investigative</t>
+          <t>Brass Cap Location, Brass Cap Location</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr"/>
@@ -2133,47 +2173,47 @@
       </c>
       <c r="V12" s="1" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="W12" s="1" t="inlineStr">
         <is>
-          <t>2008-01-24</t>
+          <t>2008-01-23</t>
         </is>
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>2017-09-27</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="Z12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AA12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-07-26</t>
         </is>
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AC12" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-07-26</t>
         </is>
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr">
@@ -2181,11 +2221,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF12" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF12" s="1" t="inlineStr"/>
       <c r="AG12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2196,7 +2232,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LAOI(a)-1.1</t>
+          <t>LAOI-7</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -2206,32 +2242,32 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>35.87543</t>
+          <t>35.86901</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>-106.28709</t>
+          <t>-106.23524</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>6835.2</t>
+          <t>6458.35</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>Qbog</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>1994-11-08 00:00:00</t>
+          <t>2005-09-21 00:00:00</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>310.20</t>
+          <t>264.90</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
@@ -2241,15 +2277,19 @@
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>295.2</t>
+          <t>240</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>305.000</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr"/>
+          <t>259.600</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+        </is>
+      </c>
       <c r="M13" s="1" t="inlineStr"/>
       <c r="N13" s="1" t="inlineStr"/>
       <c r="O13" s="1" t="inlineStr">
@@ -2285,22 +2325,22 @@
       </c>
       <c r="V13" s="1" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="W13" s="1" t="inlineStr">
         <is>
-          <t>1995-05-18</t>
+          <t>2011-03-10</t>
         </is>
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>2013-08-15</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="Z13" s="1" t="inlineStr">
@@ -2325,7 +2365,7 @@
       </c>
       <c r="AD13" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE13" s="1" t="inlineStr">
@@ -2344,7 +2384,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2</t>
+          <t>POI-4</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2354,59 +2394,59 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.87176</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.21957</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>6622.6</t>
+          <t>6372.29</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>Qbog</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>2005-03-01 00:00:00</t>
+          <t>1996-05-13 00:00:00</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>176.50</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>153.3</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>162.800</t>
+          <t>174.000</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>added for P Longmire.  Location data taken from Brass Cap survey data., added for P Longmire.  Location data taken from Brass Cap survey data.</t>
+          <t>Survey of Aluminum disc, Survey of Aluminum disc</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr"/>
       <c r="N14" s="1" t="inlineStr"/>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
@@ -2437,47 +2477,47 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>2008-01-15</t>
+          <t>2008-01-22</t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>2016-08-24</t>
+          <t>2013-06-03</t>
         </is>
       </c>
       <c r="Z14" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA14" s="1" t="inlineStr">
         <is>
-          <t>2006-04-19</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB14" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC14" s="1" t="inlineStr">
         <is>
-          <t>2006-04-19</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr">
@@ -2496,7 +2536,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a</t>
+          <t>R-3i</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -2506,59 +2546,59 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.87179</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
+          <t>-106.22037</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>6624.43</t>
+          <t>6390.15</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>2006-01-20 00:00:00</t>
+          <t>2005-08-16 00:00:00</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>194.10</t>
+          <t>220.34</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2 in</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>181.4</t>
+          <t>215.2</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>191.000</t>
+          <t>220.000</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap Location, Brass Cap Location</t>
+          <t>New hole based on R-3 drilling activities, Brass monument survey from R-3i WCR, Brass monument survey from R-3i WCR, Brass monument survey from R-3i WCR</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr"/>
       <c r="N15" s="1" t="inlineStr"/>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2579,7 +2619,7 @@
       </c>
       <c r="T15" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U15" s="1" t="inlineStr">
@@ -2589,47 +2629,47 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.9425</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>2008-01-23</t>
+          <t>2007-01-11</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2016-06-02</t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AA15" s="1" t="inlineStr">
         <is>
-          <t>2006-07-26</t>
+          <t>2006-08-10</t>
         </is>
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AC15" s="1" t="inlineStr">
         <is>
-          <t>2006-07-26</t>
+          <t>2006-08-10</t>
         </is>
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr">
@@ -2648,7 +2688,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>LAOI-7</t>
+          <t>R-5 S2</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -2658,52 +2698,40 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>35.86901</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>-106.23524</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>6458.35</t>
+          <t>6472.6</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>2005-09-21 00:00:00</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>264.90</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Tp</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr"/>
+      <c r="H16" s="1" t="inlineStr"/>
+      <c r="I16" s="1" t="inlineStr"/>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>372.8</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>259.600</t>
+          <t>388.800</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Original x, y = 1646709, 1773061</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr"/>
@@ -2718,11 +2746,7 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q16" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q16" s="1" t="inlineStr"/>
       <c r="R16" s="1" t="inlineStr"/>
       <c r="S16" s="1" t="inlineStr">
         <is>
@@ -2741,22 +2765,22 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2011-03-10</t>
+          <t>2011-03-09</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>2016-08-31</t>
+          <t>2016-08-23</t>
         </is>
       </c>
       <c r="Z16" s="1" t="inlineStr">
@@ -2781,7 +2805,7 @@
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr">
@@ -2789,7 +2813,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF16" s="1" t="inlineStr"/>
+      <c r="AF16" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG16" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2800,7 +2828,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>POI-4</t>
+          <t>R-6i</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2810,59 +2838,59 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>35.87176</t>
+          <t>35.87534</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>-106.21957</t>
+          <t>-106.26493</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>6372.29</t>
+          <t>6996.9</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tf</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>1996-05-13 00:00:00</t>
+          <t>2004-12-20 00:00:00</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>176.50</t>
+          <t>615.00</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>602</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>174.000</t>
+          <t>612.000</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>Survey of Aluminum disc, Survey of Aluminum disc</t>
+          <t>Surface Pad installation date estimated from WCR Well Completion Begin Date. Comp Depth set at bottom of casing., Location info taken from Brass cap monument survey data from R-6/R-6i WCR. Added for P Longmire, Location info taken from Brass cap monument survey data from R-6/R-6i WCR. Added for P Longmire, Location info taken from Brass cap monument survey data from R-6/R-6i WCR. Added for P Longmire</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr"/>
       <c r="N17" s="1" t="inlineStr"/>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
@@ -2893,47 +2921,47 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
         <is>
-          <t>2008-01-22</t>
+          <t>2006-03-01</t>
         </is>
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>2013-06-03</t>
+          <t>2016-08-23</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AA17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-03-01</t>
         </is>
       </c>
       <c r="AB17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="AC17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-03-01</t>
         </is>
       </c>
       <c r="AD17" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE17" s="1" t="inlineStr">
@@ -2941,7 +2969,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF17" s="1" t="inlineStr"/>
+      <c r="AF17" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG17" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2952,7 +2984,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-3i</t>
+          <t>R-9i S1</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2962,17 +2994,17 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>35.87179</t>
+          <t>35.86696</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>-106.22037</t>
+          <t>-106.22372</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>6390.15</t>
+          <t>6383.2</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
@@ -2980,41 +3012,29 @@
           <t>Tb4</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>2005-08-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>220.34</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>2 in</t>
-        </is>
-      </c>
+      <c r="G18" s="1" t="inlineStr"/>
+      <c r="H18" s="1" t="inlineStr"/>
+      <c r="I18" s="1" t="inlineStr"/>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>215.2</t>
+          <t>189.1</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>220.000</t>
+          <t>199.500</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>New hole based on R-3 drilling activities, Brass monument survey from R-3i WCR, Brass monument survey from R-3i WCR, Brass monument survey from R-3i WCR</t>
+          <t>Location info taken from Brass monument survey data from R-9i WCR., Original x, y, z = 1648208.8, 1770834.7, 6383.85, Location info taken from Brass monument survey data from R-9i WCR.</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr"/>
       <c r="N18" s="1" t="inlineStr"/>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
@@ -3022,11 +3042,7 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q18" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q18" s="1" t="inlineStr"/>
       <c r="R18" s="1" t="inlineStr"/>
       <c r="S18" s="1" t="inlineStr">
         <is>
@@ -3035,7 +3051,7 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
@@ -3045,47 +3061,47 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>3.9425</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2007-01-11</t>
+          <t>2004-02-06</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2016-06-02</t>
+          <t>2015-09-21</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA18" s="1" t="inlineStr">
         <is>
-          <t>2006-08-10</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB18" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC18" s="1" t="inlineStr">
         <is>
-          <t>2006-08-10</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr">
@@ -3093,7 +3109,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF18" s="1" t="inlineStr"/>
+      <c r="AF18" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG18" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3104,7 +3124,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R-5 S2</t>
+          <t>TW-2Ar</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -3114,47 +3134,59 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.88485</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.27122</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>6472.6</t>
+          <t>6651.67</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr"/>
-      <c r="H19" s="1" t="inlineStr"/>
-      <c r="I19" s="1" t="inlineStr"/>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>2010-03-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>113.90</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>4.5 in</t>
+        </is>
+      </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>372.8</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>388.800</t>
+          <t>112.000</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Location info taken from Brass cap monument survey data from R-5 WCR., Original x, y = 1646709, 1773061</t>
+          <t>Brass cap location rounded to 2 decimal places. -RJK, Brass cap location rounded to 2 decimal places. -RJK, Brass cap location rounded to 2 decimal places. -RJK</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr"/>
       <c r="N19" s="1" t="inlineStr"/>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
@@ -3162,7 +3194,11 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q19" s="1" t="inlineStr"/>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R19" s="1" t="inlineStr"/>
       <c r="S19" s="1" t="inlineStr">
         <is>
@@ -3171,7 +3207,7 @@
       </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U19" s="1" t="inlineStr">
@@ -3181,22 +3217,22 @@
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>2011-03-09</t>
+          <t>2010-04-29</t>
         </is>
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>2016-08-23</t>
+          <t>2013-06-06</t>
         </is>
       </c>
       <c r="Z19" s="1" t="inlineStr">
@@ -3221,7 +3257,7 @@
       </c>
       <c r="AD19" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE19" s="1" t="inlineStr">
@@ -3229,11 +3265,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF19" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF19" s="1" t="inlineStr"/>
       <c r="AG19" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3244,7 +3276,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R-6i</t>
+          <t>03-B-13</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -3254,64 +3286,68 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>35.87534</t>
+          <t>35.87374</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>-106.26493</t>
+          <t>-106.33008</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>6996.9</t>
+          <t>7458.260</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>Tf</t>
+          <t>Qbt3</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>2004-12-20 00:00:00</t>
+          <t>2005-06-10 00:00:00</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>615.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>612.000</t>
+          <t>31.500</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>Surface Pad installation date estimated from WCR Well Completion Begin Date. Comp Depth set at bottom of casing., Location info taken from Brass cap monument survey data from R-6/R-6i WCR. Added for P Longmire, Location info taken from Brass cap monument survey data from R-6/R-6i WCR. Added for P Longmire, Location info taken from Brass cap monument survey data from R-6/R-6i WCR. Added for P Longmire</t>
+          <t>Ground surface elevation, Ground surface elevation, Ground surface elevation</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr"/>
-      <c r="N20" s="1" t="inlineStr"/>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Pajarito</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -3325,11 +3361,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T20" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T20" s="1" t="inlineStr"/>
       <c r="U20" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3337,47 +3369,47 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>2006-08-24</t>
         </is>
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.204</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>2016-08-23</t>
+          <t>2017-11-01</t>
         </is>
       </c>
       <c r="Z20" s="1" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA20" s="1" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB20" s="1" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC20" s="1" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AE20" s="1" t="inlineStr">
@@ -3400,7 +3432,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R-9i S1</t>
+          <t>PCI-2</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -3410,55 +3442,67 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>35.86696</t>
+          <t>35.85331</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>-106.22372</t>
+          <t>-106.29309</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>6383.2</t>
+          <t>6920.95</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr"/>
-      <c r="H21" s="1" t="inlineStr"/>
-      <c r="I21" s="1" t="inlineStr"/>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>2009-04-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>533.30</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>189.1</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>199.500</t>
-        </is>
-      </c>
-      <c r="L21" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass monument survey data from R-9i WCR., Original x, y, z = 1648208.8, 1770834.7, 6383.85, Location info taken from Brass monument survey data from R-9i WCR.</t>
-        </is>
-      </c>
+          <t>522.000</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr"/>
       <c r="M21" s="1" t="inlineStr"/>
       <c r="N21" s="1" t="inlineStr"/>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
-        </is>
-      </c>
-      <c r="Q21" s="1" t="inlineStr"/>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R21" s="1" t="inlineStr"/>
       <c r="S21" s="1" t="inlineStr">
         <is>
@@ -3477,22 +3521,22 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2004-02-06</t>
+          <t>2009-12-14</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2015-09-21</t>
+          <t>2009-12-14</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -3517,7 +3561,7 @@
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE21" s="1" t="inlineStr">
@@ -3525,11 +3569,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF21" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF21" s="1" t="inlineStr"/>
       <c r="AG21" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3540,7 +3580,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>TW-2Ar</t>
+          <t>R-19 S2</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -3550,52 +3590,40 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>35.88485</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>-106.27122</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>6651.67</t>
+          <t>7066.3</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>2010-03-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>113.90</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
-        <is>
-          <t>4.5 in</t>
-        </is>
-      </c>
+          <t>Tp</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr"/>
+      <c r="H22" s="1" t="inlineStr"/>
+      <c r="I22" s="1" t="inlineStr"/>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>893.3</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>112.000</t>
+          <t>909.600</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location rounded to 2 decimal places. -RJK, Brass cap location rounded to 2 decimal places. -RJK, Brass cap location rounded to 2 decimal places. -RJK</t>
+          <t>original x, y, z = 1629920.1,1760250, 7066.9, Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr"/>
@@ -3607,14 +3635,10 @@
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
-        </is>
-      </c>
-      <c r="Q22" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="inlineStr"/>
       <c r="R22" s="1" t="inlineStr"/>
       <c r="S22" s="1" t="inlineStr">
         <is>
@@ -3623,7 +3647,7 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
@@ -3633,22 +3657,22 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2010-04-29</t>
+          <t>2009-03-10</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2013-06-06</t>
+          <t>2014-04-09</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3673,7 +3697,7 @@
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr">
@@ -3681,7 +3705,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF22" s="1" t="inlineStr"/>
+      <c r="AF22" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG22" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3692,7 +3720,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>03-B-13</t>
+          <t>R-23i S1</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3702,63 +3730,47 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>35.87374</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>-106.33008</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>7458.260</t>
+          <t>6527.88</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>Qbt3</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>2005-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Tb4</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr"/>
+      <c r="H23" s="1" t="inlineStr"/>
+      <c r="I23" s="1" t="inlineStr"/>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>400.3</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>31.500</t>
+          <t>420.000</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>Ground surface elevation, Ground surface elevation, Ground surface elevation</t>
+          <t>4.5 inch casing. This corresponds to LANL's R-23i S2, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr"/>
-      <c r="N23" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N23" s="1" t="inlineStr"/>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
@@ -3766,18 +3778,18 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q23" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q23" s="1" t="inlineStr"/>
       <c r="R23" s="1" t="inlineStr"/>
       <c r="S23" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T23" s="1" t="inlineStr"/>
+      <c r="T23" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3785,22 +3797,22 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t>2006-08-24</t>
+          <t>2009-12-03</t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>0.204</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2017-11-01</t>
+          <t>2015-10-26</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
@@ -3825,7 +3837,7 @@
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE23" s="1" t="inlineStr">
@@ -3848,7 +3860,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>PCI-2</t>
+          <t>R-23i S2</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3858,55 +3870,47 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>35.85331</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>-106.29309</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>6920.95</t>
+          <t>6527.88</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>2009-04-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>533.30</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Tb4</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr"/>
+      <c r="H24" s="1" t="inlineStr"/>
+      <c r="I24" s="1" t="inlineStr"/>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>470.2</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>522.000</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr"/>
+          <t>480.100</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>4.5 inch casing. This corresponds to LANL's R-23i S3, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+        </is>
+      </c>
       <c r="M24" s="1" t="inlineStr"/>
       <c r="N24" s="1" t="inlineStr"/>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3914,11 +3918,7 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q24" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q24" s="1" t="inlineStr"/>
       <c r="R24" s="1" t="inlineStr"/>
       <c r="S24" s="1" t="inlineStr">
         <is>
@@ -3937,47 +3937,47 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2009-12-14</t>
+          <t>2010-06-17</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>2009-12-14</t>
+          <t>2010-10-18</t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AA24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-10-03</t>
         </is>
       </c>
       <c r="AB24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AC24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-10-03</t>
         </is>
       </c>
       <c r="AD24" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE24" s="1" t="inlineStr">
@@ -3996,7 +3996,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-19 S2</t>
+          <t>R-23i S3</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -4006,22 +4006,22 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>7066.3</t>
+          <t>6527.880</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr"/>
@@ -4029,24 +4029,28 @@
       <c r="I25" s="1" t="inlineStr"/>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>893.3</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>909.600</t>
+          <t>547.000</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>original x, y, z = 1629920.1,1760250, 7066.9, Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr"/>
-      <c r="N25" s="1" t="inlineStr"/>
+      <c r="N25" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
@@ -4061,11 +4065,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T25" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T25" s="1" t="inlineStr"/>
       <c r="U25" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -4073,47 +4073,47 @@
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>2009-03-10</t>
+          <t>2006-10-11</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2014-04-09</t>
+          <t>2011-10-26</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AA25" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-10-11</t>
         </is>
       </c>
       <c r="AB25" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-10-11</t>
         </is>
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE25" s="1" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4426,7 +4426,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -4654,7 +4654,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H8" s="5" t="n"/>
@@ -4746,749 +4746,723 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>R-23i S1</t>
+          <t>R-37 S1</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.84437</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
+          <t>-106.25873</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr"/>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>400.3 - 420</t>
+          <t>929.3 - 950</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>12/3/09</t>
+          <t>10/28/11</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>R-23i S2</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>35.82385</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>-106.22476</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>470.2 - 480.1</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>6/17/10</t>
-        </is>
-      </c>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos Canyon</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>R-23i S3</t>
+          <t>LADP-3</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>35.82385</t>
+          <t>35.87418</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>-106.22476</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr"/>
+          <t>-106.27507</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>12/17/93</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>524 - 547</t>
+          <t>316 - 325</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>10/11/06</t>
+          <t>1/24/08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-37 S1</t>
+          <t>LAOI(a)-1.1</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>35.84437</t>
+          <t>35.87543</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>-106.25873</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
+          <t>-106.28709</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>11/8/94</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>310.2</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>929.3 - 950</t>
+          <t>295.2 - 305</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>10/28/11</t>
+          <t>5/18/95</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Los Alamos and Pajarito Canyons</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>LAOI-3.2</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>35.87308</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>-106.25937</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>3/1/05</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>153.3 - 162.8</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>1/15/08</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>LADP-3</t>
+          <t>LAOI-3.2a</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>35.87418</t>
+          <t>35.87318</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>-106.27507</t>
+          <t>-106.25944</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>12/17/93</t>
+          <t>1/20/06</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>194.1</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>316 - 325</t>
+          <t>181.4 - 191</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>1/24/08</t>
+          <t>1/23/08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>LAOI(a)-1.1</t>
+          <t>LAOI-7</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.87543</t>
+          <t>35.86901</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.28709</t>
+          <t>-106.23524</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>11/8/94</t>
+          <t>9/21/05</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>310.2</t>
+          <t>264.9</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>295.2 - 305</t>
+          <t>240 - 259.6</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>5/18/95</t>
+          <t>3/10/11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2</t>
+          <t>POI-4</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>35.87308</t>
+          <t>35.87176</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>-106.25937</t>
+          <t>-106.21957</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>3/1/05</t>
+          <t>5/13/96</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>176.5</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>153.3 - 162.8</t>
+          <t>159 - 174</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>1/15/08</t>
+          <t>1/22/08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>LAOI-3.2a</t>
+          <t>R-3i</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>35.87318</t>
+          <t>35.87179</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>-106.25944</t>
+          <t>-106.22037</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>1/20/06</t>
+          <t>8/16/05</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>194.1</t>
+          <t>220.34</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>181.4 - 191</t>
+          <t>215.2 - 220</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.9425</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>1/23/08</t>
+          <t>1/11/07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>LAOI-7</t>
+          <t>R-5 S2</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>35.86901</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>-106.23524</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>9/21/05</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>264.9</t>
-        </is>
-      </c>
+          <t>-106.22877</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr"/>
+      <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>240 - 259.6</t>
+          <t>372.8 - 388.8</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>3/10/11</t>
+          <t>3/9/11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>POI-4</t>
+          <t>R-6i</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>35.87176</t>
+          <t>35.87534</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>-106.21957</t>
+          <t>-106.26493</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>5/13/96</t>
+          <t>12/20/04</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>176.5</t>
+          <t>615</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>159 - 174</t>
+          <t>602 - 612</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>1/22/08</t>
+          <t>3/1/06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R-3i</t>
+          <t>R-9i S1</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>35.87179</t>
+          <t>35.86696</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>-106.22037</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>8/16/05</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>220.34</t>
-        </is>
-      </c>
+          <t>-106.22372</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>215.2 - 220</t>
+          <t>189.1 - 199.5</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>3.9425</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>1/11/07</t>
+          <t>2/6/04</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R-5 S2</t>
+          <t>TW-2Ar</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.88485</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr"/>
-      <c r="E23" s="1" t="inlineStr"/>
+          <t>-106.27122</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>3/4/10</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>113.9</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>372.8 - 388.8</t>
+          <t>102 - 112</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>3/9/11</t>
+          <t>4/29/10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>R-6i</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>35.87534</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>-106.26493</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>12/20/04</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>602 - 612</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>3/1/06</t>
-        </is>
-      </c>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-9i S1</t>
+          <t>03-B-13</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>35.86696</t>
+          <t>35.87374</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>-106.22372</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr"/>
-      <c r="E25" s="1" t="inlineStr"/>
+          <t>-106.33008</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>6/10/05</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>189.1 - 199.5</t>
+          <t>21.5 - 31.5</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>2/6/04</t>
+          <t>8/24/06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>TW-2Ar</t>
+          <t>PCI-2</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.88485</t>
+          <t>35.85331</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.27122</t>
+          <t>-106.29309</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>3/4/10</t>
+          <t>4/10/09</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>113.9</t>
+          <t>533.3</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>102 - 112</t>
+          <t>512 - 522</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>4/29/10</t>
+          <t>12/14/09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>03-B-13</t>
+          <t>R-19 S2</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>35.87374</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>-106.33008</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>6/10/05</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t>-106.28542</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>21.5 - 31.5</t>
+          <t>893.3 - 909.6</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>8/24/06</t>
+          <t>3/10/09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>PCI-2</t>
+          <t>R-23i S1</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>35.85331</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>-106.29309</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>4/10/09</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>533.3</t>
-        </is>
-      </c>
+          <t>-106.22476</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr"/>
+      <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>512 - 522</t>
+          <t>400.3 - 420</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>12/14/09</t>
+          <t>12/3/09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R-19 S2</t>
+          <t>R-23i S2</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr"/>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>893.3 - 909.6</t>
+          <t>470.2 - 480.1</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>3/10/09</t>
+          <t>6/17/10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R-40 S1</t>
+          <t>R-23i S3</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>35.83939</t>
+          <t>35.82385</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-106.26278</t>
+          <t>-106.22476</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr"/>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>751.59 - 785.06</t>
+          <t>524 - 547</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>12/4/09</t>
+          <t>10/11/06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R-40 Si</t>
+          <t>R-40 S1</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -5505,26 +5479,61 @@
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
+          <t>751.59 - 785.06</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>12/4/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>R-40 Si</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>35.83939</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>-106.26278</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr"/>
+      <c r="E32" s="1" t="inlineStr"/>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
           <t>649.67 - 669.02</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>5.6789</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H32" s="1" t="inlineStr">
         <is>
           <t>6/17/10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
